--- a/src/main/resources/cases/login.xlsx
+++ b/src/main/resources/cases/login.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBE8BE1-BE57-1F4E-900C-58BE23F6FB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BEDBDF9-7689-F640-9E78-9B9C2D284FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="-19980" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11400" yWindow="-16860" windowWidth="22260" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用例" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>003@qq.com</t>
   </si>
@@ -33,10 +33,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>非法邮箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>aa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -49,42 +45,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此用户名已被使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码长度至少为6位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码不一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复密码不能为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法的邮件格式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户名为空</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>已存在用户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>002@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>满足条件的注册数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Desc(用例描述)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -97,15 +65,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PasswordConfirm(重复密码)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IsPostive(是否为正向用例)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ExpectedTips(错误条件提示值)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足条件的登陆数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误的用户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>004@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -462,158 +446,114 @@
     <col min="2" max="2" width="20.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="18.1640625" style="3" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="27.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="34" style="3" customWidth="1"/>
+    <col min="5" max="5" width="34" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" s="3">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="3">
         <v>123123</v>
       </c>
-      <c r="E3" s="3">
-        <v>123123</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="3">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="3">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="3">
+        <v>123</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="3">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D6" s="3">
-        <v>123</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>123123</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>123123</v>
-      </c>
-      <c r="E7" s="3">
-        <v>123122</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="3">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>123123</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>123123</v>
-      </c>
-      <c r="E9" s="3">
         <v>123123</v>
       </c>
     </row>
@@ -622,6 +562,8 @@
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" display="003@qq.com" xr:uid="{C4CF0360-4333-8B4B-BAF1-7C94F81C4F2C}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{21C8A49E-39A2-3542-8AEA-62778BA2BCC0}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{15E22EFB-5FAD-7944-8A35-56BE729947D9}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{4080241C-C930-5648-AD9B-417C782E2C7E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
